--- a/Iteracion Inicial/1.Inicio/8.Gestion de Proyectos/Lista de Riesgos.xlsx
+++ b/Iteracion Inicial/1.Inicio/8.Gestion de Proyectos/Lista de Riesgos.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr showInkAnnotation="0" codeName="ThisWorkbook"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="330" windowWidth="15480" windowHeight="8895" tabRatio="760"/>
+    <workbookView xWindow="360" yWindow="330" windowWidth="15480" windowHeight="8895" tabRatio="760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1- Riegosa - Identificacion" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <definedName name="CorrectiveActionStatus">Tablas!$F$12:$F$15</definedName>
     <definedName name="IncludeWeekly">Tablas!$F$26:$F$28</definedName>
     <definedName name="MitigationStatusValues">Tablas!$C$13:$C$16</definedName>
-    <definedName name="MitigationStrategy">Tablas!$C$30:$C$35</definedName>
+    <definedName name="MitigationStrategy">Tablas!$C$30:$C$33</definedName>
     <definedName name="ProblemCategory">Tablas!$F$17:$F$24</definedName>
     <definedName name="ProblemStatus">Tablas!$F$5:$F$8</definedName>
     <definedName name="ProjectPhase">Tablas!$C$18:$C$27</definedName>
@@ -34,8 +34,8 @@
   </definedNames>
   <calcPr calcId="145621"/>
   <customWorkbookViews>
+    <customWorkbookView name="juan.torres - Personal View" guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="675" activeSheetId="2"/>
     <customWorkbookView name="Yanina Winkelried - Personal View" guid="{60E57BA7-3FC4-4D9D-93E6-8278AA36C6EE}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1020" windowHeight="605" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="juan.torres - Personal View" guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1148" windowHeight="675" activeSheetId="2"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="208">
   <si>
     <t>Risk #</t>
   </si>
@@ -87,36 +87,12 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Disminución de Interés en el proyecto</t>
-  </si>
-  <si>
-    <t>Incuplimiento de los plazos</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
-    <t>Descripción riesgo 2</t>
-  </si>
-  <si>
-    <t>efecto estimado riesgo 2</t>
-  </si>
-  <si>
-    <t>Descripción riesgo 3</t>
-  </si>
-  <si>
-    <t>Efecto estimado riesgo 3</t>
-  </si>
-  <si>
-    <t>Risk mitigation action</t>
-  </si>
-  <si>
     <t>Responsible</t>
   </si>
   <si>
-    <t>Target Date</t>
-  </si>
-  <si>
     <t>Presentar el avance en reuniones</t>
   </si>
   <si>
@@ -171,33 +147,12 @@
     <t>Project Phase</t>
   </si>
   <si>
-    <t>Project Planning</t>
-  </si>
-  <si>
-    <t>Requirements Definition</t>
-  </si>
-  <si>
-    <t>Analysis</t>
-  </si>
-  <si>
-    <t>Design</t>
-  </si>
-  <si>
     <t>Development</t>
   </si>
   <si>
-    <t>Testing</t>
-  </si>
-  <si>
     <t>Training</t>
   </si>
   <si>
-    <t>Installation</t>
-  </si>
-  <si>
-    <t>Project Closure</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -339,19 +294,10 @@
     <t>ProblemStatus</t>
   </si>
   <si>
-    <t>In Evaluation</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>CorrectiveActionStatus</t>
-  </si>
-  <si>
-    <t>Assigned</t>
-  </si>
-  <si>
-    <t>In Progress</t>
   </si>
   <si>
     <t>ProblemCategory</t>
@@ -506,21 +452,6 @@
   </si>
   <si>
     <t>MitigationStrategy</t>
-  </si>
-  <si>
-    <t>Evade</t>
-  </si>
-  <si>
-    <t>Accept</t>
-  </si>
-  <si>
-    <t>Control</t>
-  </si>
-  <si>
-    <t>Establish Contingency</t>
-  </si>
-  <si>
-    <t>Transfer</t>
   </si>
   <si>
     <t>Template version: 2.0</t>
@@ -633,6 +564,157 @@
   </si>
   <si>
     <t>Riegos Externos</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>Modelado Empresarial</t>
+  </si>
+  <si>
+    <t>Requisistos</t>
+  </si>
+  <si>
+    <t>Analisis y Diseño</t>
+  </si>
+  <si>
+    <t>Implementación</t>
+  </si>
+  <si>
+    <t>Prueba</t>
+  </si>
+  <si>
+    <t>Despliegue</t>
+  </si>
+  <si>
+    <t>Gestión de cambios y configuración</t>
+  </si>
+  <si>
+    <t>Gestión de proyectos</t>
+  </si>
+  <si>
+    <t>Entorno</t>
+  </si>
+  <si>
+    <t>IR04</t>
+  </si>
+  <si>
+    <t>IR05</t>
+  </si>
+  <si>
+    <t>IR06</t>
+  </si>
+  <si>
+    <t>Los requisitos se han adaptado pero continuan cambiando.</t>
+  </si>
+  <si>
+    <t>Las herramientas de soporte y entornos impuestos por el cliente son incompatibles, tienen un bajo rendimiento o no funcionan de forma decuada, con lo que se reduce la productividad.</t>
+  </si>
+  <si>
+    <t>Un mal diseño implica volver a diseñar e implementar.</t>
+  </si>
+  <si>
+    <t>La planificación no incluye tareas necesarias.</t>
+  </si>
+  <si>
+    <t>Planificación</t>
+  </si>
+  <si>
+    <t>Diseño e Implementación</t>
+  </si>
+  <si>
+    <t>Cliente</t>
+  </si>
+  <si>
+    <t>Requisitos</t>
+  </si>
+  <si>
+    <t>26/feb/2015</t>
+  </si>
+  <si>
+    <t>Retrasos en el despliegue del sistema, lo cual conllevaría en el peor caso a la adquisición de nuevos equipos por parte del cliente para un despliegue correcto.</t>
+  </si>
+  <si>
+    <t>Volver a analisar y diseñar el sistema.</t>
+  </si>
+  <si>
+    <t>Incuplimiento de los plazos estimados.</t>
+  </si>
+  <si>
+    <t>El sistema tiende a tener una baja calidad debido a los ajustes realizados para adaptar los requerimiento</t>
+  </si>
+  <si>
+    <t>Aumento del alcance del sistema lo cual conlleva a no terminar en la fecha pactada inicialmente.</t>
+  </si>
+  <si>
+    <t>Un control de calidad inadecuado hace que los problemas de calidad que afectan al a planificación se conozcan tarde.</t>
+  </si>
+  <si>
+    <t>Proceso</t>
+  </si>
+  <si>
+    <t>El sistema no cumplirá los requisistos minimos de calidad y el proyecto no alcanzará terminar en la fecha pactada.</t>
+  </si>
+  <si>
+    <t>Evitar</t>
+  </si>
+  <si>
+    <t>Aceptar</t>
+  </si>
+  <si>
+    <t>Transferir</t>
+  </si>
+  <si>
+    <t>Mitigar</t>
+  </si>
+  <si>
+    <t>Abierto</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>En Evaluación</t>
+  </si>
+  <si>
+    <t>Asignado</t>
+  </si>
+  <si>
+    <t>En Progreso</t>
+  </si>
+  <si>
+    <t>Completado</t>
+  </si>
+  <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
+    <t>Finalizado</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Tarea Asignada</t>
+  </si>
+  <si>
+    <t>Se añaden requisitos extras.</t>
+  </si>
+  <si>
+    <t>Este riesgo será transferido al cliente ya que es de su responsabilidad contar con los requisitos minimos de hardware y software pactados al inicio del proyecto</t>
+  </si>
+  <si>
+    <t>Acción de Mitigación de Riesgo</t>
+  </si>
+  <si>
+    <t>Responsable</t>
+  </si>
+  <si>
+    <t>Comentarios
+(Incluye acciones de rendimiento actuales)</t>
+  </si>
+  <si>
+    <t>Fecha Objetivo</t>
   </si>
 </sst>
 </file>
@@ -934,7 +1016,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1269,6 +1351,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1305,6 +1399,12 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -1341,22 +1441,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1873,8 +1966,8 @@
   </sheetPr>
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="95" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A13" zoomScale="95" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1977,7 @@
     <col min="3" max="3" width="28.42578125" style="29" customWidth="1"/>
     <col min="4" max="4" width="38.140625" style="29" customWidth="1"/>
     <col min="5" max="5" width="16.140625" style="29" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" style="29" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="29" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" style="29" customWidth="1"/>
     <col min="8" max="8" width="13.7109375" style="29" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
@@ -1923,83 +2016,83 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="30" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="132"/>
+        <v>125</v>
+      </c>
+      <c r="C3" s="107"/>
       <c r="D3" s="27"/>
       <c r="E3" s="27"/>
       <c r="F3" s="27"/>
       <c r="G3" s="32" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="H3" s="28"/>
       <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="30" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="132"/>
+        <v>126</v>
+      </c>
+      <c r="C4" s="107"/>
       <c r="D4" s="27"/>
       <c r="E4" s="27"/>
       <c r="F4" s="27"/>
       <c r="G4" s="33" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C5" s="132"/>
+        <v>129</v>
+      </c>
+      <c r="C5" s="107"/>
       <c r="D5" s="27"/>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="34"/>
-      <c r="H5" s="106" t="s">
-        <v>157</v>
-      </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="107"/>
+      <c r="H5" s="109" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" s="109"/>
+      <c r="J5" s="110"/>
       <c r="K5" s="92"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B6" s="131">
+        <v>127</v>
+      </c>
+      <c r="B6" s="106">
         <v>42061</v>
       </c>
-      <c r="C6" s="133"/>
+      <c r="C6" s="108"/>
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
       <c r="G6" s="35" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="I6" s="36" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="K6" s="92"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="40" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2007,7 +2100,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
       <c r="G7" s="37" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="H7" s="38">
         <v>1</v>
@@ -2025,7 +2118,7 @@
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
       <c r="G8" s="41" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="H8" s="38">
         <v>2</v>
@@ -2046,7 +2139,7 @@
       <c r="E9" s="73"/>
       <c r="F9" s="73"/>
       <c r="G9" s="42" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="H9" s="43">
         <v>3</v>
@@ -2070,7 +2163,7 @@
     </row>
     <row r="11" spans="1:12" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A11" s="45" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
@@ -2098,7 +2191,7 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
@@ -2116,7 +2209,7 @@
     </row>
     <row r="15" spans="1:12" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="70" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -2139,201 +2232,285 @@
     </row>
     <row r="17" spans="1:13" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="C17" s="105" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="F17" s="9" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="J17" s="12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="K17" s="95" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>1</v>
       </c>
       <c r="M17" s="82" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="69" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="17"/>
+      <c r="C18" s="17" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="11"/>
+        <v>182</v>
+      </c>
+      <c r="E18" s="135" t="s">
+        <v>179</v>
+      </c>
       <c r="F18" s="11" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="H18" s="1">
         <v>2</v>
       </c>
       <c r="I18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J18" s="13">
         <f>IF(H18*I18&gt;0,H18*I18," ")</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K18" s="94" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="L18" s="31" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
       <c r="M18" s="81"/>
     </row>
     <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="25" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="23"/>
+        <v>173</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>176</v>
+      </c>
       <c r="D19" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="8"/>
+        <v>181</v>
+      </c>
+      <c r="E19" s="135" t="s">
+        <v>179</v>
+      </c>
       <c r="F19" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="7">
-        <v>0.5</v>
+        <v>161</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H19" s="1">
         <v>2</v>
       </c>
       <c r="I19" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="13">
         <f>IF(H19*I19&gt;0,H19*I19," ")</f>
-        <v>4</v>
-      </c>
-      <c r="K19" s="94"/>
+        <v>6</v>
+      </c>
+      <c r="K19" s="94" t="s">
+        <v>191</v>
+      </c>
       <c r="L19" s="31" t="s">
-        <v>17</v>
+        <v>192</v>
       </c>
       <c r="M19" s="81"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="25" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="23"/>
+        <v>80</v>
+      </c>
+      <c r="B20" s="134" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>177</v>
+      </c>
       <c r="D20" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="8"/>
+        <v>180</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>179</v>
+      </c>
       <c r="F20" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="7">
-        <v>0.6</v>
+        <v>164</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="H20" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J20" s="13">
         <f>IF(H20*I20&gt;0,H20*I20," ")</f>
+        <v>9</v>
+      </c>
+      <c r="K20" s="94" t="s">
+        <v>190</v>
+      </c>
+      <c r="L20" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" s="136" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="25" t="s">
+        <v>168</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="E21" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="94"/>
-      <c r="L20" s="31" t="s">
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="13">
+        <f t="shared" ref="J21:J41" si="0">IF(H21*I21&gt;0,H21*I21," ")</f>
         <v>4</v>
       </c>
-      <c r="M20" s="81"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="13" t="str">
-        <f t="shared" ref="J21:J41" si="0">IF(H21*I21&gt;0,H21*I21," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K21" s="94"/>
-      <c r="L21" s="31"/>
+      <c r="K21" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" s="31" t="s">
+        <v>192</v>
+      </c>
       <c r="M21" s="81"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="13" t="str">
+    <row r="22" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A22" s="25" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="E22" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>1</v>
+      </c>
+      <c r="J22" s="13">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K22" s="94"/>
-      <c r="L22" s="31"/>
+        <v>2</v>
+      </c>
+      <c r="K22" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="L22" s="31" t="s">
+        <v>192</v>
+      </c>
       <c r="M22" s="81"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="31"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="13" t="str">
+    <row r="23" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B23" s="134" t="s">
+        <v>202</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E23" s="135" t="s">
+        <v>179</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H23" s="1">
+        <v>2</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2</v>
+      </c>
+      <c r="J23" s="13">
         <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K23" s="94"/>
-      <c r="L23" s="31"/>
+        <v>4</v>
+      </c>
+      <c r="K23" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="L23" s="31" t="s">
+        <v>192</v>
+      </c>
       <c r="M23" s="81"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
@@ -2663,37 +2840,37 @@
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I43" s="76"/>
       <c r="J43" s="74" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="K43" s="74"/>
       <c r="L43" s="47">
         <f>COUNTIF(L18:L41,"Open")</f>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="I44" s="77"/>
       <c r="J44" s="75" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="K44" s="75"/>
       <c r="L44" s="48">
         <f>COUNTIF(L18:L41,"Closed")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" fitToPage="1" showRuler="0" topLeftCell="A13">
+      <selection activeCell="A8" sqref="A8"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
     <customSheetView guid="{60E57BA7-3FC4-4D9D-93E6-8278AA36C6EE}" showPageBreaks="1" fitToPage="1" showRuler="0">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" fitToPage="1" showRuler="0" topLeftCell="A13">
-      <selection activeCell="A8" sqref="A8"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
@@ -2714,8 +2891,8 @@
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations xWindow="195" yWindow="550" count="12">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá ingresar la numeración correlativa de los riesgos externos identificados._x000a__x000a_Deben utilizar el formato ER01, ER02, etc._x000a_" sqref="A19:A41"/>
+  <dataValidations xWindow="629" yWindow="647" count="12">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá ingresar la numeración correlativa de los riesgos externos identificados._x000a__x000a_Deben utilizar el formato ER01, ER02, etc._x000a_" sqref="A19:A20 A22:A41"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda, se deberá indicar la descripción del riesgo externo identificado." sqref="B19:C41"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá indicar cuál es el efecto estimado si el riesgo indicado ocurriera." sqref="D18:D41"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá indicar la fecha en que el riesgo externo fue identificado." sqref="E18:E41"/>
@@ -2731,7 +2908,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá indicar el estado del riesgo externo._x000a__x000a_Los posibles valores son &quot;Open&quot; y &quot;Closed&quot;" sqref="L18:L41">
       <formula1>StatusValues</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá ingresar la numeración correlativa de los riesgos internos identificados._x000a__x000a_Deben utilizar el formato ER01, ER02, etc._x000a_" sqref="A18"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá ingresar la numeración correlativa de los riesgos internos identificados._x000a__x000a_Deben utilizar el formato ER01, ER02, etc._x000a_" sqref="A18 A21"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda, se deberá indicar la descripción del riesgo interno identificado." sqref="B18:C18"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá indicar el número de la versión para la cual el riesgo es válido._x000a__x000a_Si el supuesto es válido para todo el periodo de mantenimiento indicar &quot;ALL&quot;" sqref="G18:G41"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K18:K41">
@@ -2753,15 +2930,15 @@
   </sheetPr>
   <dimension ref="A2:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="29" customWidth="1"/>
     <col min="2" max="2" width="49.140625" style="29" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" style="29" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" style="29" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" style="29" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" style="29" customWidth="1"/>
     <col min="6" max="6" width="34.28515625" style="29" customWidth="1"/>
@@ -2770,7 +2947,7 @@
   <sheetData>
     <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="45" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="B2" s="49"/>
       <c r="C2" s="28"/>
@@ -2788,7 +2965,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="33" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="B4" s="49"/>
       <c r="C4" s="28"/>
@@ -2806,104 +2983,122 @@
     </row>
     <row r="6" spans="1:6" s="54" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="52" t="s">
-        <v>0</v>
+        <v>143</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>9</v>
+        <v>204</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>10</v>
+        <v>205</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="E6" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
-        <v>96</v>
+      <c r="A7" s="25" t="str">
+        <f>'1- Riegosa - Identificacion'!A18</f>
+        <v>IR01</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D7" s="50">
+        <v>38822</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="25" t="str">
+        <f>'1- Riegosa - Identificacion'!A19</f>
+        <v>IR02</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
-        <v>97</v>
+      <c r="A9" s="25" t="str">
+        <f>'1- Riegosa - Identificacion'!A20</f>
+        <v>IR03</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>19</v>
+        <v>129</v>
       </c>
       <c r="D9" s="50">
         <v>39025</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="25" t="str">
+        <f>'1- Riegosa - Identificacion'!A21</f>
+        <v>IR04</v>
+      </c>
       <c r="B10" s="8"/>
-      <c r="C10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="25" t="str">
+        <f>'1- Riegosa - Identificacion'!A22</f>
+        <v>IR05</v>
+      </c>
       <c r="B11" s="8"/>
-      <c r="C11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="25" t="str">
+        <f>'1- Riegosa - Identificacion'!A23</f>
+        <v>IR06</v>
+      </c>
       <c r="B12" s="8"/>
-      <c r="C12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="8"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
@@ -2911,7 +3106,7 @@
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="8"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
@@ -2919,7 +3114,7 @@
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="8"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -3047,30 +3242,30 @@
       <c r="F30" s="8"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C32" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="109"/>
+      <c r="C32" s="111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="112"/>
       <c r="E32" s="47">
         <f>COUNTIF(E7:E30,"Pending")</f>
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C33" s="110" t="s">
-        <v>44</v>
-      </c>
-      <c r="D33" s="111"/>
+      <c r="C33" s="113" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="114"/>
       <c r="E33" s="51">
         <f>COUNTIF(E7:E30,"In process")</f>
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C34" s="112" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="113"/>
+      <c r="C34" s="115" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="116"/>
       <c r="E34" s="48">
         <f>COUNTIF(E7:E30,"Finished")</f>
         <v>1</v>
@@ -3079,17 +3274,17 @@
   </sheetData>
   <autoFilter ref="A6:E6"/>
   <customSheetViews>
+    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" showRuler="0" topLeftCell="A34">
+      <selection activeCell="D44" sqref="D44"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+      <autoFilter ref="B1:F1"/>
+    </customSheetView>
     <customSheetView guid="{60E57BA7-3FC4-4D9D-93E6-8278AA36C6EE}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" showRuler="0">
       <selection activeCell="A9" sqref="A9"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId1"/>
-      <headerFooter alignWithMargins="0"/>
-      <autoFilter ref="B1:F1"/>
-    </customSheetView>
-    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" fitToPage="1" showAutoFilter="1" showRuler="0" topLeftCell="A34">
-      <selection activeCell="D44" sqref="D44"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" scale="54" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="83" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
       <autoFilter ref="B1:F1"/>
     </customSheetView>
@@ -3100,7 +3295,7 @@
     <mergeCell ref="C34:D34"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="5">
+  <dataValidations disablePrompts="1" xWindow="499" yWindow="584" count="5">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá indicar el número de riesgo identificado anteriormente, en la sección &quot;Risk Identification&quot;" sqref="A7:A30"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá describir la actividad de mitigación del riesgo respectivo." sqref="B22:B30 B7:B20"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="Explicación" prompt="En esta celda se deberá indicar el nombre de la persona responsable de realizar la tarea de mitigación descrita." sqref="C7:C30"/>
@@ -3119,7 +3314,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F31"/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -3135,7 +3330,7 @@
   <sheetData>
     <row r="2" spans="1:6" s="29" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="96" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
@@ -3153,7 +3348,7 @@
     </row>
     <row r="4" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="100" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B4" s="97"/>
       <c r="C4" s="98"/>
@@ -3174,230 +3369,246 @@
         <v>0</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="115" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="116"/>
+        <v>3</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="119"/>
+      <c r="F6" s="119"/>
     </row>
     <row r="7" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="B7" s="102" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="114"/>
-      <c r="E7" s="114"/>
-      <c r="F7" s="114"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
+      <c r="F7" s="117"/>
     </row>
     <row r="8" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B8" s="102" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C8" s="103" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="114"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="114"/>
+        <v>7</v>
+      </c>
+      <c r="D8" s="117"/>
+      <c r="E8" s="117"/>
+      <c r="F8" s="117"/>
     </row>
     <row r="9" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="B9" s="102" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C9" s="103" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
+        <v>11</v>
+      </c>
+      <c r="D9" s="117"/>
+      <c r="E9" s="117"/>
+      <c r="F9" s="117"/>
     </row>
     <row r="10" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="103"/>
       <c r="B10" s="102"/>
       <c r="C10" s="103"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
     </row>
     <row r="11" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="103"/>
       <c r="B11" s="102"/>
       <c r="C11" s="103"/>
-      <c r="D11" s="114"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
     </row>
     <row r="12" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="103"/>
       <c r="B12" s="102"/>
       <c r="C12" s="103"/>
-      <c r="D12" s="114"/>
-      <c r="E12" s="114"/>
-      <c r="F12" s="114"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="117"/>
+      <c r="F12" s="117"/>
     </row>
     <row r="13" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="103"/>
       <c r="B13" s="102"/>
       <c r="C13" s="103"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
     </row>
     <row r="14" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="103"/>
       <c r="B14" s="102"/>
       <c r="C14" s="103"/>
-      <c r="D14" s="114"/>
-      <c r="E14" s="114"/>
-      <c r="F14" s="114"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
     </row>
     <row r="15" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="103"/>
       <c r="B15" s="102"/>
       <c r="C15" s="103"/>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
     </row>
     <row r="16" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="103"/>
       <c r="B16" s="102"/>
       <c r="C16" s="103"/>
-      <c r="D16" s="114"/>
-      <c r="E16" s="114"/>
-      <c r="F16" s="114"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
     </row>
     <row r="17" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="103"/>
       <c r="B17" s="102"/>
       <c r="C17" s="103"/>
-      <c r="D17" s="114"/>
-      <c r="E17" s="114"/>
-      <c r="F17" s="114"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="117"/>
+      <c r="F17" s="117"/>
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="103"/>
       <c r="B18" s="102"/>
       <c r="C18" s="103"/>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="114"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="117"/>
+      <c r="F18" s="117"/>
     </row>
     <row r="19" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="103"/>
       <c r="B19" s="102"/>
       <c r="C19" s="103"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="114"/>
-      <c r="F19" s="114"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
     </row>
     <row r="20" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="103"/>
       <c r="B20" s="102"/>
       <c r="C20" s="103"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="103"/>
       <c r="B21" s="104"/>
       <c r="C21" s="103"/>
-      <c r="D21" s="114"/>
-      <c r="E21" s="114"/>
-      <c r="F21" s="114"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="117"/>
+      <c r="F21" s="117"/>
     </row>
     <row r="22" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="103"/>
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
-      <c r="D22" s="114"/>
-      <c r="E22" s="114"/>
-      <c r="F22" s="114"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="117"/>
+      <c r="F22" s="117"/>
     </row>
     <row r="23" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="103"/>
       <c r="B23" s="102"/>
       <c r="C23" s="103"/>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="114"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
     </row>
     <row r="24" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="103"/>
       <c r="B24" s="102"/>
       <c r="C24" s="103"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
     </row>
     <row r="25" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="103"/>
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="114"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
+      <c r="D25" s="117"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
     </row>
     <row r="26" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="103"/>
       <c r="B26" s="102"/>
       <c r="C26" s="103"/>
-      <c r="D26" s="114"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
     </row>
     <row r="27" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="103"/>
       <c r="B27" s="102"/>
       <c r="C27" s="103"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
     </row>
     <row r="28" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="103"/>
       <c r="B28" s="102"/>
       <c r="C28" s="103"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
     </row>
     <row r="29" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="103"/>
       <c r="B29" s="102"/>
       <c r="C29" s="103"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
     </row>
     <row r="30" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="103"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
     </row>
     <row r="31" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
     <mergeCell ref="D22:F22"/>
     <mergeCell ref="D23:F23"/>
     <mergeCell ref="D24:F24"/>
@@ -3407,22 +3618,6 @@
     <mergeCell ref="D27:F27"/>
     <mergeCell ref="D28:F28"/>
     <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3460,127 +3655,127 @@
   <sheetData>
     <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="58" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B2" s="55"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
-        <v>47</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="69" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C5" s="60" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="E5" s="61" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="F5" s="61" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G5" s="60" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="60" t="s">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="I5" s="60" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="J5" s="91" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A6" s="14" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="D6" s="64">
         <v>38518</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" s="25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I6" s="14"/>
       <c r="J6" s="90"/>
     </row>
     <row r="7" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="D7" s="65">
         <v>38521</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="F7" s="25">
         <v>0.5</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="H7" s="25" t="s">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="I7" s="16"/>
       <c r="J7" s="90"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D8" s="65">
         <v>38522</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="F8" s="25">
         <v>0.6</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="H8" s="25" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="I8" s="14"/>
       <c r="J8" s="90"/>
@@ -3660,10 +3855,10 @@
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
-      <c r="E15" s="123" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="124"/>
+      <c r="E15" s="128" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="129"/>
       <c r="G15" s="78">
         <f>COUNTIF(G6:G13,"Open")</f>
         <v>1</v>
@@ -3673,10 +3868,10 @@
       <c r="A16" s="18"/>
       <c r="B16" s="19"/>
       <c r="C16" s="19"/>
-      <c r="E16" s="125" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="126"/>
+      <c r="E16" s="130" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="131"/>
       <c r="G16" s="79">
         <f>COUNTIF(G6:G13,"In Evaluation")</f>
         <v>0</v>
@@ -3686,10 +3881,10 @@
       <c r="A17" s="18"/>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
-      <c r="E17" s="125" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="126"/>
+      <c r="E17" s="130" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="131"/>
       <c r="G17" s="79">
         <f>COUNTIF(G6:G13,"Task Assg.")</f>
         <v>1</v>
@@ -3699,10 +3894,10 @@
       <c r="A18" s="18"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
-      <c r="E18" s="127" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="128"/>
+      <c r="E18" s="132" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="133"/>
       <c r="G18" s="80">
         <f>COUNTIF(G6:G13,"Closed")</f>
         <v>1</v>
@@ -3721,46 +3916,46 @@
     </row>
     <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="71" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="60" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="B22" s="61" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D22" s="60" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="G22" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="H22" s="130" t="s">
-        <v>105</v>
-      </c>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
+      <c r="H22" s="120" t="s">
+        <v>87</v>
+      </c>
+      <c r="I22" s="120"/>
+      <c r="J22" s="120"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="14" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="D23" s="64">
         <v>38523</v>
@@ -3769,24 +3964,24 @@
         <v>38523</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
+        <v>2</v>
+      </c>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D24" s="65">
         <v>38522</v>
@@ -3795,24 +3990,24 @@
         <v>38522</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
+        <v>2</v>
+      </c>
+      <c r="H24" s="121"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="121"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="14" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D25" s="65">
         <v>38523</v>
@@ -3821,14 +4016,14 @@
         <v>38523</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
+        <v>65</v>
+      </c>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="14"/>
@@ -3838,9 +4033,9 @@
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
       <c r="G26" s="25"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
+      <c r="H26" s="121"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="121"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="14"/>
@@ -3850,9 +4045,9 @@
       <c r="E27" s="16"/>
       <c r="F27" s="14"/>
       <c r="G27" s="25"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
+      <c r="H27" s="121"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="121"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
@@ -3862,9 +4057,9 @@
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
+      <c r="H28" s="121"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="121"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="14"/>
@@ -3874,9 +4069,9 @@
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="25"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
+      <c r="H29" s="121"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="121"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
@@ -3886,45 +4081,45 @@
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
       <c r="G30" s="25"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
+      <c r="H30" s="121"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="121"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D32" s="117" t="s">
-        <v>81</v>
-      </c>
-      <c r="E32" s="118"/>
+      <c r="D32" s="122" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="123"/>
       <c r="F32" s="66">
         <f>COUNTIF(G$23:G$30,"Open")</f>
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D33" s="119" t="s">
-        <v>82</v>
-      </c>
-      <c r="E33" s="120"/>
+      <c r="D33" s="124" t="s">
+        <v>67</v>
+      </c>
+      <c r="E33" s="125"/>
       <c r="F33" s="67">
         <f>COUNTIF(G$23:G$30,"Assigned")</f>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D34" s="119" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="120"/>
+      <c r="D34" s="124" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" s="125"/>
       <c r="F34" s="67">
         <f>COUNTIF(G$23:G$30,"In Progress")</f>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="D35" s="121" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="122"/>
+      <c r="D35" s="126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="127"/>
       <c r="F35" s="68">
         <f>COUNTIF(G$23:G$30,"Completed")</f>
         <v>1</v>
@@ -3932,20 +4127,28 @@
     </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" fitToPage="1" showRuler="0">
+      <selection sqref="A1:A9"/>
+      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+      <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId1"/>
+      <headerFooter alignWithMargins="0"/>
+    </customSheetView>
     <customSheetView guid="{60E57BA7-3FC4-4D9D-93E6-8278AA36C6EE}" showPageBreaks="1" fitToPage="1" showRuler="0">
       <selection activeCell="A8" sqref="A8"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
-      <headerFooter alignWithMargins="0"/>
-    </customSheetView>
-    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" fitToPage="1" showRuler="0">
-      <selection sqref="A1:A9"/>
-      <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-      <pageSetup paperSize="9" scale="76" orientation="landscape" r:id="rId2"/>
+      <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId2"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells count="17">
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="H22:J22"/>
     <mergeCell ref="H23:J23"/>
     <mergeCell ref="H24:J24"/>
@@ -3955,14 +4158,6 @@
     <mergeCell ref="H27:J27"/>
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <dataValidations count="16">
@@ -4015,7 +4210,7 @@
   <sheetData>
     <row r="2" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B2" s="58" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
@@ -4023,17 +4218,17 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" s="85" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" s="83" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" s="87" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="88"/>
@@ -4041,7 +4236,7 @@
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" s="86"/>
       <c r="C8" s="86" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D8" s="84"/>
     </row>
@@ -4049,48 +4244,48 @@
       <c r="B9" s="86"/>
       <c r="C9" s="86"/>
       <c r="D9" s="84" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
       <c r="D10" s="84" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" s="86"/>
       <c r="C11" s="86"/>
       <c r="D11" s="84" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" s="86"/>
       <c r="C12" s="86"/>
       <c r="D12" s="84" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" s="86"/>
       <c r="C13" s="86"/>
       <c r="D13" s="84" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B14" s="86"/>
       <c r="C14" s="86"/>
       <c r="D14" s="84" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B15" s="86"/>
       <c r="C15" s="86" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="D15" s="84"/>
     </row>
@@ -4098,33 +4293,33 @@
       <c r="B16" s="86"/>
       <c r="C16" s="86"/>
       <c r="D16" s="84" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
       <c r="D17" s="84" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" s="86"/>
       <c r="C18" s="86"/>
       <c r="D18" s="84" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" s="86"/>
       <c r="C19" s="86"/>
       <c r="D19" s="84" t="s">
-        <v>117</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="87" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="C20" s="87"/>
       <c r="D20" s="88"/>
@@ -4132,7 +4327,7 @@
     <row r="21" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="86"/>
       <c r="C21" s="86" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="D21" s="84"/>
     </row>
@@ -4140,48 +4335,48 @@
       <c r="B22" s="86"/>
       <c r="C22" s="86"/>
       <c r="D22" s="84" t="s">
-        <v>120</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B23" s="86"/>
       <c r="C23" s="86"/>
       <c r="D23" s="84" t="s">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B24" s="86"/>
       <c r="C24" s="86"/>
       <c r="D24" s="84" t="s">
-        <v>122</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B25" s="86"/>
       <c r="C25" s="86"/>
       <c r="D25" s="84" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B26" s="86"/>
       <c r="C26" s="86"/>
       <c r="D26" s="84" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B27" s="86"/>
       <c r="C27" s="86"/>
       <c r="D27" s="84" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B28" s="86"/>
       <c r="C28" s="86" t="s">
-        <v>126</v>
+        <v>108</v>
       </c>
       <c r="D28" s="84"/>
     </row>
@@ -4189,34 +4384,34 @@
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
       <c r="D29" s="84" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B30" s="86"/>
       <c r="C30" s="86"/>
       <c r="D30" s="84" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B31" s="86"/>
       <c r="C31" s="86"/>
       <c r="D31" s="84" t="s">
-        <v>129</v>
+        <v>111</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B32" s="86"/>
       <c r="C32" s="86"/>
       <c r="D32" s="84" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B33" s="86"/>
       <c r="C33" s="86" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D33" s="84"/>
     </row>
@@ -4224,27 +4419,27 @@
       <c r="B34" s="86"/>
       <c r="C34" s="86"/>
       <c r="D34" s="84" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B35" s="86"/>
       <c r="C35" s="86"/>
       <c r="D35" s="84" t="s">
-        <v>132</v>
+        <v>114</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B36" s="86"/>
       <c r="C36" s="86"/>
       <c r="D36" s="84" t="s">
-        <v>133</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B37" s="86"/>
       <c r="C37" s="86" t="s">
-        <v>134</v>
+        <v>116</v>
       </c>
       <c r="D37" s="84"/>
     </row>
@@ -4252,35 +4447,35 @@
       <c r="B38" s="86"/>
       <c r="C38" s="86"/>
       <c r="D38" s="84" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B39" s="86"/>
       <c r="C39" s="86"/>
       <c r="D39" s="84" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B40" s="86"/>
       <c r="C40" s="86"/>
       <c r="D40" s="84" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B41" s="86"/>
       <c r="C41" s="86"/>
       <c r="D41" s="84" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B42" s="89"/>
       <c r="C42" s="89"/>
       <c r="D42" s="84" t="s">
-        <v>139</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.2">
@@ -4297,17 +4492,17 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="B1:F35"/>
+  <dimension ref="B1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" customWidth="1"/>
     <col min="5" max="5" width="20.42578125" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
@@ -4315,19 +4510,19 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="24" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2"/>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="F4" s="2"/>
     </row>
@@ -4336,7 +4531,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -4344,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>86</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
@@ -4352,204 +4547,196 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>65</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="E11" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C13" s="2"/>
       <c r="F13" s="3" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>198</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>90</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C15" s="3" t="s">
-        <v>24</v>
+        <v>196</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C16" s="4" t="s">
-        <v>25</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>39</v>
+        <v>158</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
-        <v>30</v>
+        <v>159</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
-        <v>31</v>
+        <v>160</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C21" s="3" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C22" s="3" t="s">
-        <v>33</v>
+        <v>162</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>163</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C24" s="3" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C25" s="3" t="s">
-        <v>36</v>
+        <v>165</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C26" s="3" t="s">
-        <v>37</v>
+        <v>166</v>
       </c>
       <c r="E26" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C27" s="6" t="s">
-        <v>38</v>
+        <v>167</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="F28" s="4" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>123</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C31" s="3" t="s">
-        <v>142</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="C32" s="3" t="s">
-        <v>143</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" s="3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" s="4" t="s">
-        <v>146</v>
+      <c r="C33" s="4" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{60E57BA7-3FC4-4D9D-93E6-8278AA36C6EE}" showPageBreaks="1" showRuler="0">
+    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" showRuler="0">
       <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId1"/>
       <headerFooter alignWithMargins="0"/>
     </customSheetView>
-    <customSheetView guid="{6EA88785-6DF9-4F35-9BB1-F8928A316E04}" showPageBreaks="1" showRuler="0">
+    <customSheetView guid="{60E57BA7-3FC4-4D9D-93E6-8278AA36C6EE}" showPageBreaks="1" showRuler="0">
       <selection activeCell="C3" sqref="C3"/>
       <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
       <pageSetup orientation="portrait" r:id="rId2"/>
